--- a/match_helper/match_helper/data/sql/create table/Table.xlsx
+++ b/match_helper/match_helper/data/sql/create table/Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="7" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,17 @@
     <sheet name="future_match" sheetId="13" r:id="rId12"/>
     <sheet name="teams_log" sheetId="14" r:id="rId13"/>
     <sheet name="names" sheetId="15" r:id="rId14"/>
-    <sheet name="mix_log" sheetId="16" r:id="rId15"/>
+    <sheet name="pin_sports" sheetId="16" r:id="rId15"/>
+    <sheet name="pin_leagues" sheetId="17" r:id="rId16"/>
+    <sheet name="pin_events" sheetId="18" r:id="rId17"/>
+    <sheet name="Sheet3" sheetId="19" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="167">
   <si>
     <t>timespan</t>
   </si>
@@ -513,6 +516,27 @@
   </si>
   <si>
     <t>eng_name</t>
+  </si>
+  <si>
+    <t>sport_id</t>
+  </si>
+  <si>
+    <t>sport_name</t>
+  </si>
+  <si>
+    <t>league_name</t>
+  </si>
+  <si>
+    <t>league_id</t>
+  </si>
+  <si>
+    <t>event_id</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>away</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1379,15 +1403,16 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1398,9 +1423,163 @@
         <v>129</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/match_helper/match_helper/data/sql/create table/Table.xlsx
+++ b/match_helper/match_helper/data/sql/create table/Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="7" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="8" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,15 @@
     <sheet name="pin_sports" sheetId="16" r:id="rId15"/>
     <sheet name="pin_leagues" sheetId="17" r:id="rId16"/>
     <sheet name="pin_events" sheetId="18" r:id="rId17"/>
-    <sheet name="Sheet3" sheetId="19" r:id="rId18"/>
+    <sheet name="mbook_event" sheetId="20" r:id="rId18"/>
+    <sheet name="mbook_market" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="125725" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="177">
   <si>
     <t>timespan</t>
   </si>
@@ -537,6 +538,36 @@
   </si>
   <si>
     <t>away</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
+    <t>market_name</t>
+  </si>
+  <si>
+    <t>runner_name</t>
+  </si>
+  <si>
+    <t>mbook_market</t>
+  </si>
+  <si>
+    <t>depth_no</t>
+  </si>
+  <si>
+    <t>mbook_events</t>
+  </si>
+  <si>
+    <t>odd</t>
+  </si>
+  <si>
+    <t>amount</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1573,12 +1604,184 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/match_helper/match_helper/data/sql/create table/Table.xlsx
+++ b/match_helper/match_helper/data/sql/create table/Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="8" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,17 @@
     <sheet name="pin_events" sheetId="18" r:id="rId17"/>
     <sheet name="mbook_event" sheetId="20" r:id="rId18"/>
     <sheet name="mbook_market" sheetId="19" r:id="rId19"/>
+    <sheet name="mb_events" sheetId="21" r:id="rId20"/>
+    <sheet name="mb_odds" sheetId="22" r:id="rId21"/>
+    <sheet name="temp_odds" sheetId="23" r:id="rId22"/>
+    <sheet name="Sheet4" sheetId="24" r:id="rId23"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="192">
   <si>
     <t>timespan</t>
   </si>
@@ -568,6 +572,51 @@
   </si>
   <si>
     <t>amount</t>
+  </si>
+  <si>
+    <t>league</t>
+  </si>
+  <si>
+    <t>period_type</t>
+  </si>
+  <si>
+    <t>bet_type</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>r3</t>
+  </si>
+  <si>
+    <t>r4</t>
+  </si>
+  <si>
+    <t>r5</t>
+  </si>
+  <si>
+    <t>r6</t>
+  </si>
+  <si>
+    <t>o1</t>
+  </si>
+  <si>
+    <t>o2</t>
+  </si>
+  <si>
+    <t>o3</t>
+  </si>
+  <si>
+    <t>o4</t>
+  </si>
+  <si>
+    <t>o5</t>
+  </si>
+  <si>
+    <t>o6</t>
   </si>
 </sst>
 </file>
@@ -1694,7 +1743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -2273,6 +2322,366 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/match_helper/match_helper/data/sql/create table/Table.xlsx
+++ b/match_helper/match_helper/data/sql/create table/Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="12" activeTab="21"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="14" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -29,14 +29,17 @@
     <sheet name="mb_events" sheetId="21" r:id="rId20"/>
     <sheet name="mb_odds" sheetId="22" r:id="rId21"/>
     <sheet name="temp_odds" sheetId="23" r:id="rId22"/>
-    <sheet name="Sheet4" sheetId="24" r:id="rId23"/>
+    <sheet name="a_odd" sheetId="24" r:id="rId23"/>
+    <sheet name="a_website" sheetId="25" r:id="rId24"/>
+    <sheet name="a_event" sheetId="26" r:id="rId25"/>
+    <sheet name="a_type" sheetId="27" r:id="rId26"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="209">
   <si>
     <t>timespan</t>
   </si>
@@ -617,6 +620,57 @@
   </si>
   <si>
     <t>o6</t>
+  </si>
+  <si>
+    <t>odd_all</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>team1</t>
+  </si>
+  <si>
+    <t>team2</t>
+  </si>
+  <si>
+    <t>team3</t>
+  </si>
+  <si>
+    <t>team4</t>
+  </si>
+  <si>
+    <t>team5</t>
+  </si>
+  <si>
+    <t>team6</t>
+  </si>
+  <si>
+    <t>note1</t>
+  </si>
+  <si>
+    <t>note2</t>
+  </si>
+  <si>
+    <t>note3</t>
+  </si>
+  <si>
+    <t>note4</t>
+  </si>
+  <si>
+    <t>note5</t>
+  </si>
+  <si>
+    <t>note6</t>
+  </si>
+  <si>
+    <t>note7</t>
+  </si>
+  <si>
+    <t>web_site_id</t>
+  </si>
+  <si>
+    <t>odd_type_id</t>
   </si>
 </sst>
 </file>
@@ -659,7 +713,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -667,7 +721,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2499,8 +2553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2676,12 +2730,477 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/match_helper/match_helper/data/sql/create table/Table.xlsx
+++ b/match_helper/match_helper/data/sql/create table/Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="14" activeTab="22"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="14" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -29,17 +29,17 @@
     <sheet name="mb_events" sheetId="21" r:id="rId20"/>
     <sheet name="mb_odds" sheetId="22" r:id="rId21"/>
     <sheet name="temp_odds" sheetId="23" r:id="rId22"/>
-    <sheet name="a_odd" sheetId="24" r:id="rId23"/>
-    <sheet name="a_website" sheetId="25" r:id="rId24"/>
+    <sheet name="a_website" sheetId="25" r:id="rId23"/>
+    <sheet name="a_type" sheetId="27" r:id="rId24"/>
     <sheet name="a_event" sheetId="26" r:id="rId25"/>
-    <sheet name="a_type" sheetId="27" r:id="rId26"/>
+    <sheet name="a_odd" sheetId="24" r:id="rId26"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="210">
   <si>
     <t>timespan</t>
   </si>
@@ -622,12 +622,6 @@
     <t>o6</t>
   </si>
   <si>
-    <t>odd_all</t>
-  </si>
-  <si>
-    <t>event</t>
-  </si>
-  <si>
     <t>team1</t>
   </si>
   <si>
@@ -664,21 +658,38 @@
     <t>note6</t>
   </si>
   <si>
-    <t>note7</t>
-  </si>
-  <si>
-    <t>web_site_id</t>
-  </si>
-  <si>
-    <t>odd_type_id</t>
+    <t>a_odd</t>
+  </si>
+  <si>
+    <t>a_website</t>
+  </si>
+  <si>
+    <t>a_event</t>
+  </si>
+  <si>
+    <t>a_type</t>
+  </si>
+  <si>
+    <t>website_id</t>
+  </si>
+  <si>
+    <t>type_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -706,11 +717,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2554,7 +2566,7 @@
   <dimension ref="A2:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2730,10 +2742,360 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:E18">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:C15">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FFFF7128"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:J13">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2743,8 +3105,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>192</v>
+      <c r="A1" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2765,7 +3127,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
         <v>129</v>
@@ -2781,7 +3143,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B6" t="s">
         <v>129</v>
@@ -2885,323 +3247,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/match_helper/match_helper/data/sql/create table/Table.xlsx
+++ b/match_helper/match_helper/data/sql/create table/Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="14" activeTab="25"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="19" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -32,14 +32,17 @@
     <sheet name="a_website" sheetId="25" r:id="rId23"/>
     <sheet name="a_type" sheetId="27" r:id="rId24"/>
     <sheet name="a_event" sheetId="26" r:id="rId25"/>
-    <sheet name="a_odd" sheetId="24" r:id="rId26"/>
+    <sheet name="a_event_s" sheetId="29" r:id="rId26"/>
+    <sheet name="a_odd" sheetId="24" r:id="rId27"/>
+    <sheet name="a_odd_log" sheetId="30" r:id="rId28"/>
+    <sheet name="a_odd_s" sheetId="31" r:id="rId29"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="219">
   <si>
     <t>timespan</t>
   </si>
@@ -674,6 +677,33 @@
   </si>
   <si>
     <t>type_id</t>
+  </si>
+  <si>
+    <t>a_evnet_s</t>
+  </si>
+  <si>
+    <t>a_event_id</t>
+  </si>
+  <si>
+    <t>a_odd_s</t>
+  </si>
+  <si>
+    <t>a_evnet_id</t>
+  </si>
+  <si>
+    <t>a_type_id</t>
+  </si>
+  <si>
+    <t>a_odd_id</t>
+  </si>
+  <si>
+    <t>a_website_id</t>
+  </si>
+  <si>
+    <t>type_name</t>
+  </si>
+  <si>
+    <t>a_odd_log</t>
   </si>
 </sst>
 </file>
@@ -2745,7 +2775,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2833,12 +2863,12 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2959,12 +2989,12 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3094,8 +3124,168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3248,6 +3438,350 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/match_helper/match_helper/data/sql/create table/Table.xlsx
+++ b/match_helper/match_helper/data/sql/create table/Table.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="220">
   <si>
     <t>timespan</t>
   </si>
@@ -704,6 +704,9 @@
   </si>
   <si>
     <t>a_odd_log</t>
+  </si>
+  <si>
+    <t>odd_id</t>
   </si>
 </sst>
 </file>
@@ -3125,7 +3128,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3285,12 +3288,12 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3446,12 +3449,12 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3603,15 +3606,15 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3638,47 +3641,47 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
         <v>132</v>
@@ -3686,7 +3689,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
         <v>132</v>
@@ -3694,7 +3697,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s">
         <v>132</v>
@@ -3702,7 +3705,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
         <v>132</v>
@@ -3710,7 +3713,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B13" t="s">
         <v>132</v>
@@ -3718,7 +3721,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
         <v>132</v>
@@ -3726,7 +3729,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
         <v>132</v>
@@ -3734,7 +3737,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
         <v>132</v>
@@ -3742,7 +3745,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
         <v>132</v>
@@ -3750,7 +3753,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
         <v>132</v>
@@ -3758,26 +3761,34 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/match_helper/match_helper/data/sql/create table/Table.xlsx
+++ b/match_helper/match_helper/data/sql/create table/Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="19" activeTab="28"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="19" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,14 @@
     <sheet name="a_odd" sheetId="24" r:id="rId27"/>
     <sheet name="a_odd_log" sheetId="30" r:id="rId28"/>
     <sheet name="a_odd_s" sheetId="31" r:id="rId29"/>
+    <sheet name="Sheet1" sheetId="32" r:id="rId30"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="221">
   <si>
     <t>timespan</t>
   </si>
@@ -707,6 +708,9 @@
   </si>
   <si>
     <t>odd_id</t>
+  </si>
+  <si>
+    <t>a_single</t>
   </si>
 </sst>
 </file>
@@ -3608,8 +3612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3871,6 +3875,302 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
